--- a/hardware/pi-crust-plus/Pi_Crust_Plus_v1.0_Parts_List.xlsx
+++ b/hardware/pi-crust-plus/Pi_Crust_Plus_v1.0_Parts_List.xlsx
@@ -25,7 +25,7 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>MDF7-26D-2.54DSA(55)</t>
+    <t>MDF7-40D-2.54DSA(55)</t>
   </si>
   <si>
     <t>Hirose</t>
@@ -93,34 +93,29 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
